--- a/Listado de usuarios Chile-Colombia.xlsx
+++ b/Listado de usuarios Chile-Colombia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfriascl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vicentegonzalez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD8573-08FC-B443-BF4F-3276A21685BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios Planta" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,15 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="184">
-  <si>
-    <t>Rut</t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
   <si>
     <t>LOGIN</t>
   </si>
@@ -580,11 +581,20 @@
   <si>
     <t>Luz  Llanos Robles</t>
   </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,7 +701,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="%_KONECTA CL-LISTADO DE USUARIOS 01022010" xfId="1"/>
+    <cellStyle name="%_KONECTA CL-LISTADO DE USUARIOS 01022010" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -41014,1049 +41024,1049 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>1600100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2">
         <v>39539</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>1600315</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>39539</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>1600102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>39722</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1600230</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>39995</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>1600291</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>40740</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>1600318</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>40796</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>1600387</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
         <v>40909</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1600932</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>41033</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>1600749</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>41076</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>1600101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
         <v>41146</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>1600221</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
         <v>41257</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>1604690</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2">
         <v>41813</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>1600854</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2">
         <v>41939</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
         <v>1600694</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
         <v>42002</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>1600108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>42219</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1">
         <v>1600271</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
         <v>42738</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>1600251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2">
         <v>42738</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
         <v>1600369</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>42830</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1">
         <v>1600699</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <v>42941</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
         <v>1600110</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2">
         <v>42973</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
         <v>1600112</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="2">
         <v>43054</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
         <v>1600116</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
         <v>43112</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <v>1600853</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2">
         <v>43434</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
         <v>1600155</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2">
         <v>43537</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1">
         <v>1600928</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2">
         <v>43724</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1">
         <v>1600929</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2">
         <v>43724</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1">
         <v>1602092</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2">
         <v>43801</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5">
         <v>1602082</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" s="6">
         <v>43801</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
         <v>1603117</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2">
         <v>43829</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="7">
         <v>1603122</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2">
         <v>43829</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" s="7">
         <v>1603137</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2">
         <v>43876</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="7">
         <v>1603143</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2">
         <v>43876</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" s="7">
         <v>1603152</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2">
         <v>43876</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" s="7">
         <v>1603154</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2">
         <v>43876</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7">
         <v>1603157</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2">
         <v>43910</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="7">
         <v>1603224</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2">
         <v>43910</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7">
         <v>1603235</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2">
         <v>43910</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="7">
         <v>1603261</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2">
         <v>43948</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40" s="7">
         <v>1603265</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2">
         <v>43948</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D41" s="7">
         <v>1603254</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2">
         <v>43948</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="7">
         <v>1603472</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2">
         <v>44004</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D43" s="7">
         <v>1603478</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2">
         <v>44004</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" s="7">
         <v>1603495</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F44" s="2">
         <v>44004</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D45" s="7">
         <v>1603878</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2">
         <v>44053</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" s="7">
         <v>1604034</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" s="2">
         <v>44081</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D47" s="7">
         <v>1604035</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F47" s="2">
         <v>44081</v>
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" s="7">
         <v>1604162</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2">
         <v>44131</v>
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D49" s="5">
         <v>1604418</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" s="6">
         <v>44291</v>
@@ -42066,168 +42076,168 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D50" s="5">
         <v>1604425</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" s="6">
         <v>44291</v>
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D51" s="5">
         <v>1604431</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51" s="6">
         <v>44291</v>
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="5">
         <v>1604521</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F52" s="6">
         <v>44319</v>
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D53" s="5">
         <v>1604522</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" s="6">
         <v>44319</v>
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D54" s="5">
         <v>1604524</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F54" s="6">
         <v>44319</v>
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D55" s="5">
         <v>1604528</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" s="6">
         <v>44319</v>
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="5">
         <v>1604529</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F56" s="6">
         <v>44319</v>
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D57" s="5">
         <v>1604532</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F57" s="6">
         <v>44319</v>
@@ -42237,126 +42247,126 @@
         <v>44448</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D58" s="5">
         <v>1604538</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F58" s="6">
         <v>44319</v>
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5">
         <v>1604539</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F59" s="6">
         <v>44319</v>
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D60" s="5">
         <v>1604724</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6">
         <v>44400</v>
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D61" s="5">
         <v>1604725</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6">
         <v>44400</v>
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D62" s="5">
         <v>1604727</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F62" s="6">
         <v>44400</v>
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D63" s="5">
         <v>1604752</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F63" s="6">
         <v>44417</v>
@@ -42366,924 +42376,924 @@
         <v>44447</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D64" s="5">
         <v>1604754</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F64" s="6">
         <v>44417</v>
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>51657744</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D65" s="5">
         <v>1601021</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F65" s="6">
         <v>41797</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>35410482</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D66" s="5">
         <v>1601022</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F66" s="6">
         <v>42136</v>
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>52583835</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D67" s="5">
         <v>1601024</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F67" s="6">
         <v>42493</v>
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>79889828</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D68" s="5">
         <v>1601025</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F68" s="6">
         <v>42494</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1030584259</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D69" s="5">
         <v>1601026</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F69" s="6">
         <v>42909</v>
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1012347141</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D70" s="5">
         <v>1601030</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F70" s="6">
         <v>43192</v>
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>52783274</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D71" s="5">
         <v>1601033</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F71" s="6">
         <v>43397</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1030670318</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D72" s="5">
         <v>1601039</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F72" s="6">
         <v>43388</v>
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>919961124111995</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D73" s="5">
         <v>1601076</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F73" s="6">
         <v>43813</v>
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>1079182591</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D74" s="5">
         <v>1601089</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F74" s="6">
         <v>43887</v>
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>1073712222</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D75" s="5">
         <v>1601082</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F75" s="6">
         <v>43887</v>
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>1023871301</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D76" s="5">
         <v>1601031</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F76" s="6">
         <v>43325</v>
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>52934363</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D77" s="5">
         <v>1601032</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F77" s="6">
         <v>43325</v>
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>1006157545</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D78" s="5">
         <v>1601079</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F78" s="6">
         <v>43887</v>
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>1019131216</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D79" s="5">
         <v>1601083</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F79" s="6">
         <v>43887</v>
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>1030667367</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D80" s="5">
         <v>1601084</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F80" s="6">
         <v>43887</v>
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>1127958601</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D81" s="5">
         <v>1601087</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F81" s="6">
         <v>43887</v>
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>1024520918</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D82" s="5">
         <v>1603469</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F82" s="6">
         <v>44000</v>
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>1024566924</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D83" s="5">
         <v>1603471</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F83" s="6">
         <v>44000</v>
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>1046061</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D84" s="5">
         <v>1603455</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F84" s="6">
         <v>43999</v>
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>1012377535</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D85" s="5">
         <v>1603462</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F85" s="6">
         <v>44000</v>
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>36303373</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D86" s="5">
         <v>1603465</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F86" s="6">
         <v>44000</v>
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>1033716925</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D87" s="5">
         <v>1603457</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F87" s="6">
         <v>43999</v>
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>1102842246</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D88" s="5">
         <v>1603459</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F88" s="6">
         <v>43999</v>
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>1002998848</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D89" s="5">
         <v>1604673</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F89" s="6">
         <v>44368</v>
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>1012464658</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D90" s="5">
         <v>1604669</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F90" s="6">
         <v>44368</v>
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>1015443048</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D91" s="5">
         <v>1604670</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F91" s="6">
         <v>44368</v>
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>1016011766</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D92" s="5">
         <v>1604676</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F92" s="6">
         <v>44368</v>
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>1019107130</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D93" s="5">
         <v>1604677</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F93" s="6">
         <v>44368</v>
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>1022423188</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D94" s="5">
         <v>1604666</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F94" s="6">
         <v>44368</v>
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>1033755878</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D95" s="5">
         <v>1604668</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F95" s="6">
         <v>44368</v>
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>1051588913</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D96" s="5">
         <v>1604667</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F96" s="6">
         <v>44368</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>1072250391</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D97" s="5">
         <v>1604674</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F97" s="6">
         <v>44368</v>
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>1079262768</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D98" s="5">
         <v>1604675</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F98" s="6">
         <v>44368</v>
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>1100397595</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D99" s="5">
         <v>1604672</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F99" s="6">
         <v>44368</v>
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>1121713928</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D100" s="5">
         <v>1604679</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F100" s="6">
         <v>44368</v>
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>1127941824</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D101" s="5">
         <v>1604662</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F101" s="6">
         <v>44368</v>
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>1193546774</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D102" s="5">
         <v>1604664</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F102" s="6">
         <v>44368</v>
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>52123360</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D103" s="5">
         <v>1604678</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F103" s="6">
         <v>44368</v>
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>52502175</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D104" s="5">
         <v>1604681</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F104" s="6">
         <v>44368</v>
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>52840804</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D105" s="5">
         <v>1604671</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F105" s="6">
         <v>44368</v>
       </c>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>53050710</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D106" s="5">
         <v>1604663</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F106" s="6">
         <v>44368</v>
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>80052026</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D107" s="5">
         <v>1604680</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F107" s="6">
         <v>44368</v>
